--- a/Bases_de_Dados_(2022-2024)/Mexico Liga MX_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Mexico Liga MX_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,24 @@
     <t>['21', '45+2', '45+5', '90+6']</t>
   </si>
   <si>
+    <t>['24', '84']</t>
+  </si>
+  <si>
+    <t>['57', '90+2']</t>
+  </si>
+  <si>
+    <t>['31', '45', '53', '69']</t>
+  </si>
+  <si>
+    <t>['35', '45+2', '87']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['20', '70']</t>
+  </si>
+  <si>
     <t>['86', '90+5']</t>
   </si>
   <si>
@@ -341,6 +359,18 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['51', '77', '89']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['18', '64', '77', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +976,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1033,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1137,7 +1167,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1224,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -1328,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1415,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1519,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1606,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1710,7 +1740,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1797,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1988,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2179,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2283,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2370,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2474,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>16</v>
@@ -2561,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -2665,7 +2695,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2746,16 +2776,16 @@
         <v>1.51</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2856,7 +2886,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -2937,16 +2967,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3047,7 +3077,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3131,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3238,7 +3268,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3319,16 +3349,16 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14">
         <v>3</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3429,7 +3459,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3510,16 +3540,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3701,16 +3731,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3892,16 +3922,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4089,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4144,6 +4174,1534 @@
       </c>
       <c r="BK18">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6413418</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45120.92013888889</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2.2</v>
+      </c>
+      <c r="V19">
+        <v>3.4</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>2.63</v>
+      </c>
+      <c r="Z19">
+        <v>1.44</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>1.1</v>
+      </c>
+      <c r="AC19">
+        <v>2.3</v>
+      </c>
+      <c r="AD19">
+        <v>3.28</v>
+      </c>
+      <c r="AE19">
+        <v>2.84</v>
+      </c>
+      <c r="AF19">
+        <v>1.04</v>
+      </c>
+      <c r="AG19">
+        <v>13</v>
+      </c>
+      <c r="AH19">
+        <v>1.22</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>1.75</v>
+      </c>
+      <c r="AK19">
+        <v>1.95</v>
+      </c>
+      <c r="AL19">
+        <v>1.67</v>
+      </c>
+      <c r="AM19">
+        <v>2.1</v>
+      </c>
+      <c r="AN19">
+        <v>1.38</v>
+      </c>
+      <c r="AO19">
+        <v>1.25</v>
+      </c>
+      <c r="AP19">
+        <v>1.65</v>
+      </c>
+      <c r="AQ19">
+        <v>1.5</v>
+      </c>
+      <c r="AR19">
+        <v>1.5</v>
+      </c>
+      <c r="AS19">
+        <v>1.33</v>
+      </c>
+      <c r="AT19">
+        <v>1.33</v>
+      </c>
+      <c r="AU19">
+        <v>1.47</v>
+      </c>
+      <c r="AV19">
+        <v>1.56</v>
+      </c>
+      <c r="AW19">
+        <v>3.03</v>
+      </c>
+      <c r="AX19">
+        <v>1.75</v>
+      </c>
+      <c r="AY19">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>2.44</v>
+      </c>
+      <c r="BA19">
+        <v>1.17</v>
+      </c>
+      <c r="BB19">
+        <v>1.35</v>
+      </c>
+      <c r="BC19">
+        <v>1.63</v>
+      </c>
+      <c r="BD19">
+        <v>2.06</v>
+      </c>
+      <c r="BE19">
+        <v>2.69</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>3</v>
+      </c>
+      <c r="BH19">
+        <v>8</v>
+      </c>
+      <c r="BI19">
+        <v>6</v>
+      </c>
+      <c r="BJ19">
+        <v>11</v>
+      </c>
+      <c r="BK19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6413419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45121</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20">
+        <v>2.27</v>
+      </c>
+      <c r="U20">
+        <v>2.15</v>
+      </c>
+      <c r="V20">
+        <v>5.61</v>
+      </c>
+      <c r="W20">
+        <v>1.39</v>
+      </c>
+      <c r="X20">
+        <v>2.75</v>
+      </c>
+      <c r="Y20">
+        <v>2.95</v>
+      </c>
+      <c r="Z20">
+        <v>1.35</v>
+      </c>
+      <c r="AA20">
+        <v>7.85</v>
+      </c>
+      <c r="AB20">
+        <v>1.05</v>
+      </c>
+      <c r="AC20">
+        <v>1.73</v>
+      </c>
+      <c r="AD20">
+        <v>3.6</v>
+      </c>
+      <c r="AE20">
+        <v>4.5</v>
+      </c>
+      <c r="AF20">
+        <v>1.05</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>1.36</v>
+      </c>
+      <c r="AI20">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20">
+        <v>2.05</v>
+      </c>
+      <c r="AK20">
+        <v>1.75</v>
+      </c>
+      <c r="AL20">
+        <v>1.95</v>
+      </c>
+      <c r="AM20">
+        <v>1.75</v>
+      </c>
+      <c r="AN20">
+        <v>1.17</v>
+      </c>
+      <c r="AO20">
+        <v>1.27</v>
+      </c>
+      <c r="AP20">
+        <v>2.15</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>0.67</v>
+      </c>
+      <c r="AU20">
+        <v>1.81</v>
+      </c>
+      <c r="AV20">
+        <v>1.01</v>
+      </c>
+      <c r="AW20">
+        <v>2.82</v>
+      </c>
+      <c r="AX20">
+        <v>1.55</v>
+      </c>
+      <c r="AY20">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20">
+        <v>3.01</v>
+      </c>
+      <c r="BA20">
+        <v>1.3</v>
+      </c>
+      <c r="BB20">
+        <v>1.5</v>
+      </c>
+      <c r="BC20">
+        <v>1.88</v>
+      </c>
+      <c r="BD20">
+        <v>2.2</v>
+      </c>
+      <c r="BE20">
+        <v>2.8</v>
+      </c>
+      <c r="BF20">
+        <v>6</v>
+      </c>
+      <c r="BG20">
+        <v>2</v>
+      </c>
+      <c r="BH20">
+        <v>3</v>
+      </c>
+      <c r="BI20">
+        <v>9</v>
+      </c>
+      <c r="BJ20">
+        <v>9</v>
+      </c>
+      <c r="BK20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6413420</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45121.91666666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>4.75</v>
+      </c>
+      <c r="U21">
+        <v>2.35</v>
+      </c>
+      <c r="V21">
+        <v>2.25</v>
+      </c>
+      <c r="W21">
+        <v>1.29</v>
+      </c>
+      <c r="X21">
+        <v>3.3</v>
+      </c>
+      <c r="Y21">
+        <v>2.45</v>
+      </c>
+      <c r="Z21">
+        <v>1.49</v>
+      </c>
+      <c r="AA21">
+        <v>5.9</v>
+      </c>
+      <c r="AB21">
+        <v>1.1</v>
+      </c>
+      <c r="AC21">
+        <v>4.5</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>1.7</v>
+      </c>
+      <c r="AF21">
+        <v>1.02</v>
+      </c>
+      <c r="AG21">
+        <v>15</v>
+      </c>
+      <c r="AH21">
+        <v>1.22</v>
+      </c>
+      <c r="AI21">
+        <v>4.2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.7</v>
+      </c>
+      <c r="AK21">
+        <v>2.15</v>
+      </c>
+      <c r="AL21">
+        <v>1.7</v>
+      </c>
+      <c r="AM21">
+        <v>2.1</v>
+      </c>
+      <c r="AN21">
+        <v>2.2</v>
+      </c>
+      <c r="AO21">
+        <v>1.18</v>
+      </c>
+      <c r="AP21">
+        <v>1.18</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>2</v>
+      </c>
+      <c r="AS21">
+        <v>0.67</v>
+      </c>
+      <c r="AT21">
+        <v>2.33</v>
+      </c>
+      <c r="AU21">
+        <v>1.24</v>
+      </c>
+      <c r="AV21">
+        <v>1.42</v>
+      </c>
+      <c r="AW21">
+        <v>2.66</v>
+      </c>
+      <c r="AX21">
+        <v>2.91</v>
+      </c>
+      <c r="AY21">
+        <v>8.5</v>
+      </c>
+      <c r="AZ21">
+        <v>1.55</v>
+      </c>
+      <c r="BA21">
+        <v>1.24</v>
+      </c>
+      <c r="BB21">
+        <v>1.54</v>
+      </c>
+      <c r="BC21">
+        <v>1.85</v>
+      </c>
+      <c r="BD21">
+        <v>2.31</v>
+      </c>
+      <c r="BE21">
+        <v>3.08</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>6</v>
+      </c>
+      <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>7</v>
+      </c>
+      <c r="BJ21">
+        <v>6</v>
+      </c>
+      <c r="BK21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6413421</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45122.00694444445</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2.15</v>
+      </c>
+      <c r="V22">
+        <v>3.6</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>2.9</v>
+      </c>
+      <c r="Y22">
+        <v>2.75</v>
+      </c>
+      <c r="Z22">
+        <v>1.4</v>
+      </c>
+      <c r="AA22">
+        <v>6.95</v>
+      </c>
+      <c r="AB22">
+        <v>1.07</v>
+      </c>
+      <c r="AC22">
+        <v>2.22</v>
+      </c>
+      <c r="AD22">
+        <v>3.15</v>
+      </c>
+      <c r="AE22">
+        <v>2.76</v>
+      </c>
+      <c r="AF22">
+        <v>1.04</v>
+      </c>
+      <c r="AG22">
+        <v>12</v>
+      </c>
+      <c r="AH22">
+        <v>1.3</v>
+      </c>
+      <c r="AI22">
+        <v>3.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1.72</v>
+      </c>
+      <c r="AK22">
+        <v>1.82</v>
+      </c>
+      <c r="AL22">
+        <v>1.72</v>
+      </c>
+      <c r="AM22">
+        <v>2.1</v>
+      </c>
+      <c r="AN22">
+        <v>1.4</v>
+      </c>
+      <c r="AO22">
+        <v>1.25</v>
+      </c>
+      <c r="AP22">
+        <v>1.63</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.33</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>1.55</v>
+      </c>
+      <c r="AV22">
+        <v>1.11</v>
+      </c>
+      <c r="AW22">
+        <v>2.66</v>
+      </c>
+      <c r="AX22">
+        <v>1.82</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>2.33</v>
+      </c>
+      <c r="BA22">
+        <v>1.16</v>
+      </c>
+      <c r="BB22">
+        <v>1.33</v>
+      </c>
+      <c r="BC22">
+        <v>1.64</v>
+      </c>
+      <c r="BD22">
+        <v>2</v>
+      </c>
+      <c r="BE22">
+        <v>2.48</v>
+      </c>
+      <c r="BF22">
+        <v>6</v>
+      </c>
+      <c r="BG22">
+        <v>2</v>
+      </c>
+      <c r="BH22">
+        <v>4</v>
+      </c>
+      <c r="BI22">
+        <v>8</v>
+      </c>
+      <c r="BJ22">
+        <v>10</v>
+      </c>
+      <c r="BK22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6413422</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45122.83333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>2.41</v>
+      </c>
+      <c r="U23">
+        <v>2.24</v>
+      </c>
+      <c r="V23">
+        <v>4.49</v>
+      </c>
+      <c r="W23">
+        <v>1.35</v>
+      </c>
+      <c r="X23">
+        <v>3.05</v>
+      </c>
+      <c r="Y23">
+        <v>2.61</v>
+      </c>
+      <c r="Z23">
+        <v>1.46</v>
+      </c>
+      <c r="AA23">
+        <v>6.35</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>1.83</v>
+      </c>
+      <c r="AD23">
+        <v>3.4</v>
+      </c>
+      <c r="AE23">
+        <v>3.5</v>
+      </c>
+      <c r="AF23">
+        <v>1.05</v>
+      </c>
+      <c r="AG23">
+        <v>9</v>
+      </c>
+      <c r="AH23">
+        <v>1.29</v>
+      </c>
+      <c r="AI23">
+        <v>3.5</v>
+      </c>
+      <c r="AJ23">
+        <v>1.82</v>
+      </c>
+      <c r="AK23">
+        <v>2.06</v>
+      </c>
+      <c r="AL23">
+        <v>1.7</v>
+      </c>
+      <c r="AM23">
+        <v>2.1</v>
+      </c>
+      <c r="AN23">
+        <v>1.25</v>
+      </c>
+      <c r="AO23">
+        <v>1.27</v>
+      </c>
+      <c r="AP23">
+        <v>1.92</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>1.33</v>
+      </c>
+      <c r="AT23">
+        <v>1.5</v>
+      </c>
+      <c r="AU23">
+        <v>1.99</v>
+      </c>
+      <c r="AV23">
+        <v>1.32</v>
+      </c>
+      <c r="AW23">
+        <v>3.31</v>
+      </c>
+      <c r="AX23">
+        <v>1.91</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>2.1</v>
+      </c>
+      <c r="BA23">
+        <v>1.17</v>
+      </c>
+      <c r="BB23">
+        <v>1.34</v>
+      </c>
+      <c r="BC23">
+        <v>1.68</v>
+      </c>
+      <c r="BD23">
+        <v>2.04</v>
+      </c>
+      <c r="BE23">
+        <v>2.5</v>
+      </c>
+      <c r="BF23">
+        <v>12</v>
+      </c>
+      <c r="BG23">
+        <v>6</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>6</v>
+      </c>
+      <c r="BJ23">
+        <v>14</v>
+      </c>
+      <c r="BK23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6413423</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45122.91666666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>1.8</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>1.22</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>2.1</v>
+      </c>
+      <c r="Z24">
+        <v>1.67</v>
+      </c>
+      <c r="AA24">
+        <v>4.5</v>
+      </c>
+      <c r="AB24">
+        <v>1.18</v>
+      </c>
+      <c r="AC24">
+        <v>1.29</v>
+      </c>
+      <c r="AD24">
+        <v>4.75</v>
+      </c>
+      <c r="AE24">
+        <v>6.8</v>
+      </c>
+      <c r="AF24">
+        <v>1.01</v>
+      </c>
+      <c r="AG24">
+        <v>24</v>
+      </c>
+      <c r="AH24">
+        <v>1.13</v>
+      </c>
+      <c r="AI24">
+        <v>5.25</v>
+      </c>
+      <c r="AJ24">
+        <v>1.37</v>
+      </c>
+      <c r="AK24">
+        <v>2.5</v>
+      </c>
+      <c r="AL24">
+        <v>1.75</v>
+      </c>
+      <c r="AM24">
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <v>1.08</v>
+      </c>
+      <c r="AO24">
+        <v>1.12</v>
+      </c>
+      <c r="AP24">
+        <v>3.1</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0.5</v>
+      </c>
+      <c r="AS24">
+        <v>1.5</v>
+      </c>
+      <c r="AT24">
+        <v>0.33</v>
+      </c>
+      <c r="AU24">
+        <v>1.31</v>
+      </c>
+      <c r="AV24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW24">
+        <v>2.25</v>
+      </c>
+      <c r="AX24">
+        <v>1.18</v>
+      </c>
+      <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>6.11</v>
+      </c>
+      <c r="BA24">
+        <v>1.15</v>
+      </c>
+      <c r="BB24">
+        <v>1.31</v>
+      </c>
+      <c r="BC24">
+        <v>1.66</v>
+      </c>
+      <c r="BD24">
+        <v>2.01</v>
+      </c>
+      <c r="BE24">
+        <v>2.4</v>
+      </c>
+      <c r="BF24">
+        <v>10</v>
+      </c>
+      <c r="BG24">
+        <v>5</v>
+      </c>
+      <c r="BH24">
+        <v>11</v>
+      </c>
+      <c r="BI24">
+        <v>6</v>
+      </c>
+      <c r="BJ24">
+        <v>21</v>
+      </c>
+      <c r="BK24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6413424</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45123.00347222222</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>2.4</v>
+      </c>
+      <c r="U25">
+        <v>2.25</v>
+      </c>
+      <c r="V25">
+        <v>4.5</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>2.63</v>
+      </c>
+      <c r="Z25">
+        <v>1.44</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>1.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.76</v>
+      </c>
+      <c r="AD25">
+        <v>3.45</v>
+      </c>
+      <c r="AE25">
+        <v>3.7</v>
+      </c>
+      <c r="AF25">
+        <v>1.04</v>
+      </c>
+      <c r="AG25">
+        <v>8.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.2</v>
+      </c>
+      <c r="AI25">
+        <v>3.9</v>
+      </c>
+      <c r="AJ25">
+        <v>1.84</v>
+      </c>
+      <c r="AK25">
+        <v>1.96</v>
+      </c>
+      <c r="AL25">
+        <v>1.75</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>1.22</v>
+      </c>
+      <c r="AO25">
+        <v>1.2</v>
+      </c>
+      <c r="AP25">
+        <v>1.95</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.5</v>
+      </c>
+      <c r="AS25">
+        <v>1.67</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>2.01</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>2.01</v>
+      </c>
+      <c r="AX25">
+        <v>1.51</v>
+      </c>
+      <c r="AY25">
+        <v>8.5</v>
+      </c>
+      <c r="AZ25">
+        <v>3.07</v>
+      </c>
+      <c r="BA25">
+        <v>1.17</v>
+      </c>
+      <c r="BB25">
+        <v>1.4</v>
+      </c>
+      <c r="BC25">
+        <v>1.8</v>
+      </c>
+      <c r="BD25">
+        <v>2.07</v>
+      </c>
+      <c r="BE25">
+        <v>2.5</v>
+      </c>
+      <c r="BF25">
+        <v>7</v>
+      </c>
+      <c r="BG25">
+        <v>8</v>
+      </c>
+      <c r="BH25">
+        <v>4</v>
+      </c>
+      <c r="BI25">
+        <v>6</v>
+      </c>
+      <c r="BJ25">
+        <v>11</v>
+      </c>
+      <c r="BK25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6413425</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>2.1</v>
+      </c>
+      <c r="U26">
+        <v>2.4</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>1.3</v>
+      </c>
+      <c r="X26">
+        <v>3.4</v>
+      </c>
+      <c r="Y26">
+        <v>2.5</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.13</v>
+      </c>
+      <c r="AC26">
+        <v>1.49</v>
+      </c>
+      <c r="AD26">
+        <v>3.85</v>
+      </c>
+      <c r="AE26">
+        <v>5.05</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>9</v>
+      </c>
+      <c r="AH26">
+        <v>1.17</v>
+      </c>
+      <c r="AI26">
+        <v>4.3</v>
+      </c>
+      <c r="AJ26">
+        <v>1.6</v>
+      </c>
+      <c r="AK26">
+        <v>2.2</v>
+      </c>
+      <c r="AL26">
+        <v>1.7</v>
+      </c>
+      <c r="AM26">
+        <v>2.05</v>
+      </c>
+      <c r="AN26">
+        <v>1.08</v>
+      </c>
+      <c r="AO26">
+        <v>1.22</v>
+      </c>
+      <c r="AP26">
+        <v>2.4</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>2</v>
+      </c>
+      <c r="AS26">
+        <v>1.33</v>
+      </c>
+      <c r="AT26">
+        <v>2.33</v>
+      </c>
+      <c r="AU26">
+        <v>1.28</v>
+      </c>
+      <c r="AV26">
+        <v>1.32</v>
+      </c>
+      <c r="AW26">
+        <v>2.6</v>
+      </c>
+      <c r="AX26">
+        <v>1.45</v>
+      </c>
+      <c r="AY26">
+        <v>8.5</v>
+      </c>
+      <c r="AZ26">
+        <v>3.29</v>
+      </c>
+      <c r="BA26">
+        <v>1.24</v>
+      </c>
+      <c r="BB26">
+        <v>1.52</v>
+      </c>
+      <c r="BC26">
+        <v>1.88</v>
+      </c>
+      <c r="BD26">
+        <v>2.25</v>
+      </c>
+      <c r="BE26">
+        <v>3.08</v>
+      </c>
+      <c r="BF26">
+        <v>6</v>
+      </c>
+      <c r="BG26">
+        <v>10</v>
+      </c>
+      <c r="BH26">
+        <v>7</v>
+      </c>
+      <c r="BI26">
+        <v>4</v>
+      </c>
+      <c r="BJ26">
+        <v>13</v>
+      </c>
+      <c r="BK26">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Mexico Liga MX_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Mexico Liga MX_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,9 @@
     <t>['20', '70']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['86', '90+5']</t>
   </si>
   <si>
@@ -364,13 +367,13 @@
     <t>['51', '77', '89']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['17']</t>
   </si>
   <si>
     <t>['18', '64', '77', '90+6']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +979,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1066,7 +1069,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1167,7 +1170,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -1358,7 +1361,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1445,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -1549,7 +1552,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1636,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1740,7 +1743,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1827,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2209,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2313,7 +2316,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2400,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
         <v>1.5</v>
@@ -2504,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>16</v>
@@ -2591,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -2695,7 +2698,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2776,16 +2779,16 @@
         <v>1.51</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2886,7 +2889,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -2967,16 +2970,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3077,7 +3080,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3161,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3349,16 +3352,16 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>3</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3540,16 +3543,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3731,16 +3734,16 @@
         <v>2.15</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3922,16 +3925,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4119,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4304,16 +4307,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>1.47</v>
@@ -4504,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="AT20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>1.81</v>
@@ -4605,7 +4608,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -4689,13 +4692,13 @@
         <v>1</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>1.24</v>
@@ -4796,7 +4799,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -4877,13 +4880,13 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5068,13 +5071,13 @@
         <v>1.92</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>1.5</v>
@@ -5262,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -5453,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>2.01</v>
@@ -5641,16 +5644,16 @@
         <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -5702,6 +5705,197 @@
       </c>
       <c r="BK26">
         <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6413426</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45123.96875</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>17</v>
+      </c>
+      <c r="T27">
+        <v>2.3</v>
+      </c>
+      <c r="U27">
+        <v>2.4</v>
+      </c>
+      <c r="V27">
+        <v>4.5</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>3.4</v>
+      </c>
+      <c r="Y27">
+        <v>2.38</v>
+      </c>
+      <c r="Z27">
+        <v>1.53</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>1.13</v>
+      </c>
+      <c r="AC27">
+        <v>1.65</v>
+      </c>
+      <c r="AD27">
+        <v>3.75</v>
+      </c>
+      <c r="AE27">
+        <v>3.9</v>
+      </c>
+      <c r="AF27">
+        <v>1.02</v>
+      </c>
+      <c r="AG27">
+        <v>17</v>
+      </c>
+      <c r="AH27">
+        <v>1.2</v>
+      </c>
+      <c r="AI27">
+        <v>4.5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.6</v>
+      </c>
+      <c r="AK27">
+        <v>2.3</v>
+      </c>
+      <c r="AL27">
+        <v>1.62</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>1.22</v>
+      </c>
+      <c r="AO27">
+        <v>1.17</v>
+      </c>
+      <c r="AP27">
+        <v>2.05</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>2</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>1.57</v>
+      </c>
+      <c r="AW27">
+        <v>1.57</v>
+      </c>
+      <c r="AX27">
+        <v>1.45</v>
+      </c>
+      <c r="AY27">
+        <v>9</v>
+      </c>
+      <c r="AZ27">
+        <v>3.28</v>
+      </c>
+      <c r="BA27">
+        <v>1.13</v>
+      </c>
+      <c r="BB27">
+        <v>1.28</v>
+      </c>
+      <c r="BC27">
+        <v>1.58</v>
+      </c>
+      <c r="BD27">
+        <v>1.91</v>
+      </c>
+      <c r="BE27">
+        <v>2.34</v>
+      </c>
+      <c r="BF27">
+        <v>9</v>
+      </c>
+      <c r="BG27">
+        <v>2</v>
+      </c>
+      <c r="BH27">
+        <v>10</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>19</v>
+      </c>
+      <c r="BK27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
